--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1865338.211611389</v>
+        <v>-1867288.43743995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.34185060258106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>169.3575929423584</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.12990358774286</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>168.775605075599</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>126.1788485660006</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>90.56351676970134</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>235.4745188564437</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>169.8607735608917</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>172.7538595767113</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>144.0731271501067</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.7283054736621</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>184.5470903405873</v>
       </c>
       <c r="W13" t="n">
-        <v>93.11384720807494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0424879565123</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>85.34402028510408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>158.7228363149353</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>43.23940303610561</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.353548818856</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789328973</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.577765259397</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941868</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.124109094748</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.161592154336</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1055.895893547586</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.723949158869</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.723949158869</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.723949158869</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.723949158869</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W4" t="n">
-        <v>2193.443497799424</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.806495672432</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C5" t="n">
-        <v>1695.806495672432</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.540797065682</v>
+        <v>897.5253104027533</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>897.5253104027533</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>486.5394056131458</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>472.6160015517367</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>145.4212815877395</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942546</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942546</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672432</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672432</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.806495672432</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2759348564911</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.918182229333</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C8" t="n">
-        <v>1920.918182229333</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205144</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229333</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4893,10 +4893,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027575</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027575</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027575</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027575</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027575</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,19 +5036,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>1088.719652983179</v>
       </c>
       <c r="W13" t="n">
-        <v>839.1822777101255</v>
+        <v>1088.719652983179</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1927268121082</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.400147668578</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,25 +5343,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>238.6741500022174</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324571</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324571</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.4872769945461</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C19" t="n">
-        <v>613.5510940666392</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247858</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.1357418247858</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905.1671280158237</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C22" t="n">
-        <v>736.2309450879168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>586.114305675581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>438.2012120931879</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>291.3112645952775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>291.3112645952775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>140.8932561432208</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>905.1671280158237</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.1671280158237</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>668.5656656016679</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C25" t="n">
-        <v>499.629482673761</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D25" t="n">
-        <v>349.5128432614252</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E25" t="n">
-        <v>349.5128432614252</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="F25" t="n">
-        <v>349.5128432614252</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473455</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.006709575438</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.2141304319076</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6382,10 +6382,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,16 +6686,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6707,40 +6707,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,52 +6935,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,10 +7093,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,10 +7312,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504511</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>19.14409596997061</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>73.53204524670008</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.9466073945061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>80.50973679386816</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>67.59055298324066</v>
       </c>
       <c r="W13" t="n">
-        <v>193.409151128516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520986</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>8.871340411023851</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>63.27145273310828</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.41480700889267</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.8991254338649</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>67.17984242816637</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.14001964452157</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>16.25443271485959</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262555</v>
+        <v>58099.54682262556</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982122</v>
@@ -26320,34 +26320,34 @@
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="F2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
+        <v>58654.3589606563</v>
+      </c>
+      <c r="H2" t="n">
         <v>58654.35896065631</v>
       </c>
-      <c r="H2" t="n">
-        <v>58654.35896065628</v>
-      </c>
       <c r="I2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982128</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26430,31 +26430,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="K4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275958</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275958</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745029.5378922785</v>
+        <v>-745145.490756185</v>
       </c>
       <c r="C6" t="n">
         <v>-178055.9035748109</v>
@@ -26528,19 +26528,19 @@
         <v>-178055.9035748109</v>
       </c>
       <c r="E6" t="n">
-        <v>-573538.6730863956</v>
+        <v>-573636.1322123676</v>
       </c>
       <c r="F6" t="n">
-        <v>-48378.63660949942</v>
+        <v>-48476.09573547157</v>
       </c>
       <c r="G6" t="n">
-        <v>-48378.63660949944</v>
+        <v>-48476.0957354716</v>
       </c>
       <c r="H6" t="n">
-        <v>-48378.63660949942</v>
+        <v>-48476.09573547163</v>
       </c>
       <c r="I6" t="n">
-        <v>-48378.63660949947</v>
+        <v>-48476.09573547161</v>
       </c>
       <c r="J6" t="n">
         <v>-304530.1612392691</v>
@@ -26549,10 +26549,10 @@
         <v>-73601.4299429637</v>
       </c>
       <c r="L6" t="n">
-        <v>-73601.42994296372</v>
+        <v>-73601.4299429637</v>
       </c>
       <c r="M6" t="n">
-        <v>-208402.445176801</v>
+        <v>-208402.4451768008</v>
       </c>
       <c r="N6" t="n">
         <v>-73601.4299429637</v>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26753,28 +26753,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6419120751746</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.356837772062718</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.0077397360851</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>56.93405031343812</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7515215062612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>61.36779947515991</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>183.6352085378755</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>50.80735538553404</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.8222680597913</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>234.1221861650002</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.360835496462499</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>51.79469286292885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>107.1571287550447</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36762,7 +36762,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
         <v>304.3692416502435</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>280.6254601782248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
